--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H2">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I2">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J2">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.655614</v>
       </c>
       <c r="O2">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P2">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q2">
-        <v>0.4525300603620001</v>
+        <v>0.515674502928</v>
       </c>
       <c r="R2">
-        <v>4.072770543258001</v>
+        <v>4.641070526352</v>
       </c>
       <c r="S2">
-        <v>0.09267621684433094</v>
+        <v>0.05356194840746969</v>
       </c>
       <c r="T2">
-        <v>0.09267621684433094</v>
+        <v>0.05356194840746968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H3">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I3">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J3">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N3">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O3">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P3">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q3">
-        <v>0.05568568570800001</v>
+        <v>0.5778357074879998</v>
       </c>
       <c r="R3">
-        <v>0.5011711713720001</v>
+        <v>5.200521367392</v>
       </c>
       <c r="S3">
-        <v>0.0114041897673528</v>
+        <v>0.06001849262806644</v>
       </c>
       <c r="T3">
-        <v>0.0114041897673528</v>
+        <v>0.06001849262806644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>4.755688</v>
       </c>
       <c r="I4">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J4">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.655614</v>
       </c>
       <c r="O4">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P4">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q4">
         <v>0.346432848048</v>
@@ -703,10 +703,10 @@
         <v>3.117895632432</v>
       </c>
       <c r="S4">
-        <v>0.07094796248897242</v>
+        <v>0.035983199146828</v>
       </c>
       <c r="T4">
-        <v>0.07094796248897242</v>
+        <v>0.03598319914682799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>4.755688</v>
       </c>
       <c r="I5">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J5">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N5">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O5">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P5">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q5">
-        <v>0.042629987232</v>
+        <v>0.3881930727857777</v>
       </c>
       <c r="R5">
-        <v>0.383669885088</v>
+        <v>3.493737655072</v>
       </c>
       <c r="S5">
-        <v>0.008730438675440638</v>
+        <v>0.04032073957240435</v>
       </c>
       <c r="T5">
-        <v>0.008730438675440638</v>
+        <v>0.04032073957240435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H6">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I6">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J6">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.655614</v>
       </c>
       <c r="O6">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P6">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q6">
-        <v>0.49345661862</v>
+        <v>0.65960086158</v>
       </c>
       <c r="R6">
-        <v>4.441109567580001</v>
+        <v>5.93640775422</v>
       </c>
       <c r="S6">
-        <v>0.101057800566695</v>
+        <v>0.06851125490376112</v>
       </c>
       <c r="T6">
-        <v>0.101057800566695</v>
+        <v>0.0685112549037611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H7">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I7">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J7">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N7">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O7">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P7">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q7">
-        <v>0.06072186708</v>
+        <v>0.7391114517911109</v>
       </c>
       <c r="R7">
-        <v>0.54649680372</v>
+        <v>6.652003066119999</v>
       </c>
       <c r="S7">
-        <v>0.01243557812755475</v>
+        <v>0.076769840710416</v>
       </c>
       <c r="T7">
-        <v>0.01243557812755475</v>
+        <v>0.076769840710416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H8">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I8">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J8">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.655614</v>
       </c>
       <c r="O8">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P8">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q8">
-        <v>0.6723918178739999</v>
+        <v>0.378645276402</v>
       </c>
       <c r="R8">
-        <v>6.051526360866</v>
+        <v>3.407807487618</v>
       </c>
       <c r="S8">
-        <v>0.1377029624679435</v>
+        <v>0.03932903148055725</v>
       </c>
       <c r="T8">
-        <v>0.1377029624679435</v>
+        <v>0.03932903148055725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H9">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I9">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J9">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N9">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O9">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P9">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q9">
-        <v>0.08274057951599999</v>
+        <v>0.4242884996919999</v>
       </c>
       <c r="R9">
-        <v>0.744665215644</v>
+        <v>3.818596497228</v>
       </c>
       <c r="S9">
-        <v>0.01694491606351269</v>
+        <v>0.04406989021436775</v>
       </c>
       <c r="T9">
-        <v>0.01694491606351269</v>
+        <v>0.04406989021436775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H10">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I10">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J10">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.655614</v>
       </c>
       <c r="O10">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P10">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q10">
-        <v>1.598210571834</v>
+        <v>2.095701620472</v>
       </c>
       <c r="R10">
-        <v>14.383895146506</v>
+        <v>18.861314584248</v>
       </c>
       <c r="S10">
-        <v>0.3273066752730303</v>
+        <v>0.2176758040892406</v>
       </c>
       <c r="T10">
-        <v>0.3273066752730303</v>
+        <v>0.2176758040892406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H11">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I11">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J11">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N11">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O11">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P11">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q11">
-        <v>0.196666386156</v>
+        <v>2.348324808912</v>
       </c>
       <c r="R11">
-        <v>1.769997475404</v>
+        <v>21.134923280208</v>
       </c>
       <c r="S11">
-        <v>0.04027643298393108</v>
+        <v>0.2439152053179708</v>
       </c>
       <c r="T11">
-        <v>0.04027643298393108</v>
+        <v>0.2439152053179708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H12">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I12">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J12">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.655614</v>
       </c>
       <c r="O12">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P12">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q12">
-        <v>0.7848671345639999</v>
+        <v>0.54411481971</v>
       </c>
       <c r="R12">
-        <v>7.063804211076</v>
+        <v>4.897033377390001</v>
       </c>
       <c r="S12">
-        <v>0.1607374252633184</v>
+        <v>0.05651598001368674</v>
       </c>
       <c r="T12">
-        <v>0.1607374252633184</v>
+        <v>0.05651598001368673</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H13">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I13">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J13">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N13">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O13">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P13">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q13">
-        <v>0.09658112997599999</v>
+        <v>0.6097043193266666</v>
       </c>
       <c r="R13">
-        <v>0.8692301697839999</v>
+        <v>5.48733887394</v>
       </c>
       <c r="S13">
-        <v>0.0197794014779176</v>
+        <v>0.06332861351523132</v>
       </c>
       <c r="T13">
-        <v>0.0197794014779176</v>
+        <v>0.06332861351523132</v>
       </c>
     </row>
   </sheetData>
